--- a/P0018/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0018/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0018\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0018/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25DA91D6-B206-4198-935A-542BDB6E4418}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -92,52 +92,52 @@
     <t>PALABRAS CLAVE</t>
   </si>
   <si>
+    <t>P0018</t>
+  </si>
+  <si>
+    <t>PR1001</t>
+  </si>
+  <si>
+    <t>PMA texto</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA texto.doc</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Vias</t>
+  </si>
+  <si>
+    <t>Subdirección Marítima y Fluvial</t>
+  </si>
+  <si>
+    <t>Subdirección del Medio Ambiente y Gestión Social</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>El documento corresponde al Plan de Manejo Ambiental del Proyecto Control de Inundaciones en la Región de la Mojana, en el cual se formula una serie de medidas y estrategias orientadas a prevenir, mitigar y controlar los impactos producidos sobre el hidrosistema fluvial de La Mojana por la ejecución de la obra, y así mismo de los impactos generados por el medio hacia la obra</t>
+  </si>
+  <si>
+    <t>informe</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>El documento formula las medidas, estrategias, y mecanismos que contribuyen a prevenir, mitigar, corregir, o compensar los daños significativos en el medio biótico y abiótico del hidrosistema fluvial, generados por la localización y construcción de las obras de control de inundaciones de la Región de La Mojana. El PMA contiene una caracterización ambiental del área de estudio, en la cual se evalúa brevemente aspectos como geología, geomorfología, suelo, condiciones climáticas, hidrológicas, ecológicas y sociales. Por otro lado, localiza los sitios donde se deben implementar las medidas de protección y control, a partir de un breve análisis en el que se clasifica las áreas a intervenir según su grado de perturbación, y una zonificación ambiental de los sitios muestreados dentro del área de influencia (Caño Barro, Ciénaga San Lorenzo, Caño Pescado, Ciénaga San Francisco, Caño Gil, Ciénaga Candelaria, Caño Muñoz, Caño San Matías, Caño Rabón, Ciénaga Los Suanes, Zapal La Sierpe, Caño Ventanillas, Caño Los Patos, Caño Viloria, Caño Mojana, Ciénaga Mojanita, Caño Pancegüita, Ciénaga San Cayetano, y Ciénaga Tomala), junto con sus posibilidades de intervención. Posteriormente, en el documento se identifican y evalúan los impactos ambientales del proyecto para luego mencionar las fichas técnicas del Plan de Manejo Ambiental. Cada ficha corresponde alguno de los tres programas que componen el PMA (Programa Manejo del Hidrosistema Fluvial, Programa de Gestión y Acción Social, Programa de Monitoreo y Seguimiento Ambiental). Estas fichas técnicas contienen la descripción del programa correspondiente, los recursos afectados, los impactos a mitigar, las actividades que se deben realizar, la ubicación de las medidas a realizar, medidas de mitigación, responsables y costos estimados.</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>P0018</t>
-  </si>
-  <si>
-    <t>PR1001</t>
-  </si>
-  <si>
-    <t>PMA texto</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018_New\02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Vias</t>
-  </si>
-  <si>
-    <t>Subdirección Marítima y Fluvial</t>
-  </si>
-  <si>
-    <t>Subdirección del Medio Ambiente y Gestión Social</t>
-  </si>
-  <si>
-    <t>El documento corresponde al Plan de Manejo Ambiental del Proyecto Control de Inundaciones en la Región de la Mojana, en el cual se formula una serie de medidas y estrategias orientadas a prevenir, mitigar y controlar los impactos producidos sobre el hidrosistema fluvial de La Mojana por la ejecución de la obra, y así mismo de los impactos generados por el medio hacia la obra</t>
-  </si>
-  <si>
-    <t>informe</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>El documento formula las medidas, estrategias, y mecanismos que contribuyen a prevenir, mitigar, corregir, o compensar los daños significativos en el medio biótico y abiótico del hidrosistema fluvial, generados por la localización y construcción de las obras de control de inundaciones de la Región de La Mojana. El PMA contiene una caracterización ambiental del área de estudio, en la cual se evalúa brevemente aspectos como geología, geomorfología, suelo, condiciones climáticas, hidrológicas, ecológicas y sociales. Por otro lado, localiza los sitios donde se deben implementar las medidas de protección y control, a partir de un breve análisis en el que se clasifica las áreas a intervenir según su grado de perturbación, y una zonificación ambiental de los sitios muestreados dentro del área de influencia (Caño Barro, Ciénaga San Lorenzo, Caño Pescado, Ciénaga San Francisco, Caño Gil, Ciénaga Candelaria, Caño Muñoz, Caño San Matías, Caño Rabón, Ciénaga Los Suanes, Zapal La Sierpe, Caño Ventanillas, Caño Los Patos, Caño Viloria, Caño Mojana, Ciénaga Mojanita, Caño Pancegüita, Ciénaga San Cayetano, y Ciénaga Tomala), junto con sus posibilidades de intervención. Posteriormente, en el documento se identifican y evalúan los impactos ambientales del proyecto para luego mencionar las fichas técnicas del Plan de Manejo Ambiental. Cada ficha corresponde alguno de los tres programas que componen el PMA (Programa Manejo del Hidrosistema Fluvial, Programa de Gestión y Acción Social, Programa de Monitoreo y Seguimiento Ambiental). Estas fichas técnicas contienen la descripción del programa correspondiente, los recursos afectados, los impactos a mitigar, las actividades que se deben realizar, la ubicación de las medidas a realizar, medidas de mitigación, responsables y costos estimados.</t>
-  </si>
-  <si>
-    <t>PMA FICHAS Mojana</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018_New/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA FICHAS Mojana.docx</t>
   </si>
   <si>
     <t>El documento se encuentra dividido en dos documentos, en el word "PMA FICHAS Mojana" se encuentran las fichas relacionadas con el PMA</t>
   </si>
   <si>
-    <t>PMA, Control de inundaciones, Inundación, Normativa, Manejo y Conservación, Impactos ambientales, Caracterización ambiental, Geología, Geomorfología, Suelo, Clima, Hidrología, Ecología, Condiciones sociales, Zonificación ambiental, Hidrosistema fluvial, Gestión, Monitoreo, Monitoreo, Seguimiento ambiental, Hidrosistema fluvial, Gestión, Acción social, Vegetación, Fauna, Calidad del agua, Ficha técnica, Caño Barro, Ciénaga San Lorenzo, Caño Pescado, Ciénaga San Francisco, Caño Gil, Ciénaga Candelaria, Caño Muñoz, Caño San Matías, Caño Rabón, Ciénaga Los Suanes, Zapal La Sierpe, Caño Ventanillas, Caño Los Patos, Caño Viloria, Caño Mojana, Ciénaga Mojanita, Caño Pancegüita, Ciénaga San Cayetano, Ciénaga Tomala</t>
+    <t>PMA, control de inundaciones, inundación, normativa, manejo y conservación, impactos ambientales, caracterización ambiental, geología, geomorfología, suelo, clima, hidrología, ecología, condiciones sociales, zonificación ambiental, hidrosistema fluvial, gestión, monitoreo, seguimiento ambiental, hidrosistema fluvial, gestión, acción social, vegetación, fauna, calidad del agua, ficha técnica, Caño Barro, Ciénaga San Lorenzo, Caño Pescado, Ciénaga San Francisco, Caño Gil, Ciénaga Candelaria, Caño Muñoz, Caño San Matías, Caño Rabón, Ciénaga Los Suanes, Zapal La Sierpe, Caño Ventanillas, Caño Los Patos, Caño Viloria, Caño Mojana, Ciénaga Mojanita, Caño Pancegüita, Ciénaga San Cayetano, Ciénaga Tomala</t>
   </si>
   <si>
     <t>PR1002</t>
@@ -146,6 +146,12 @@
     <t>PMA ESPOLONES Y CANAL DE DESVIACION</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA ESPOLONES Y CANAL DE DESVIACION.doc</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Vías</t>
+  </si>
+  <si>
     <t>El documento contiene el Plan de Manejo Ambiental de la Construcción de Obras de Protección de Márgenes en el Bajo Cauca, específicamente sobre la construcción de espolones y canal el desviación de excedencias</t>
   </si>
   <si>
@@ -155,10 +161,10 @@
     <t>NO</t>
   </si>
   <si>
-    <t>El documento esta en formato editable y contiene bastante errores tipográficos.   el documento es muy general en la mayoría de aspectos no se evidencia que el plan de manejo sea especifico del proyecto que se esta evaluando, la información específica solo esta en las fichas.</t>
-  </si>
-  <si>
-    <t>PMA, Control de inundaciones, Inundación, Normativa, Manejo y Conservación, Impactos ambientales, Ficha técnica, Monitoreo, Seguimiento ambiental, Hidrosistema fluvial, Gestión, Acción social, Canal desviación, Espolones, Infraestructura</t>
+    <t>El documento esta en formato editable y contiene bastante errores tipográficos.  Este es muy general y en la mayoría de aspectos no se evidencia que el plan de manejo sea especifico del proyecto que se esta evaluando, la información específica solo se encuentra en las fichas.</t>
+  </si>
+  <si>
+    <t>PMA, control de inundaciones, inundación, normativa, manejo y conservación, impactos ambientales, ficha técnica, monitoreo, seguimiento ambiental, hidrosistema fluvial, gestión, acción social, canal, desviación, espolones, infraestructura</t>
   </si>
   <si>
     <t>PR1003</t>
@@ -167,6 +173,9 @@
     <t>PMA PotreroNuevoWILLIAM_MAYO12</t>
   </si>
   <si>
+    <t xml:space="preserve">s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA PotreroNuevoWILLIAM_MAYO12.doc                     </t>
+  </si>
+  <si>
     <t>El documento comprende los comentarios al Plan de Manejo Ambiental de INVIAS construcción de obras de protección de márgenes en el bajo Cauca Rompedero Potrero Nuevo</t>
   </si>
   <si>
@@ -176,7 +185,7 @@
     <t>El documento no parece una versión final, no presenta un formato establecido, esta en formato editable y contiene bastante errores tipográficos</t>
   </si>
   <si>
-    <t>PMA, Control de inundaciones, Inundación, Normativa, Manejo y Conservación, Impactos ambientales, Monitoreo, Seguimiento ambiental, Hidrosistema fluvial, Reconexión hidráulica, Consideraciones, Ictiología, Limnología, Vegetación, Estructura del paisaje, Infrastructura, San Matías, Caño Rabón, Ciénaga de los Suanes, Caño Gramalote, Caño La Sangre, Caño Mojana, Ciénaga Mojanita, Ciénaga de Tomala, Ciénaga de San Francisco, Caño Viloria.</t>
+    <t>PMA, control de inundaciones, inundación, normativa, manejo y conservación, impactos ambientales, monitoreo, seguimiento ambiental, hidrosistema fluvial, reconexión hidráulica, consideraciones, ictiología, limnología, vegetación, estructura del paisaje, infrastructura, San Matías, Caño Rabón, Ciénaga de los Suanes, Caño Gramalote, Caño La Sangre, Caño Mojana, Ciénaga Mojanita, Ciénaga de Tomala, Ciénaga de San Francisco, Caño Viloria.</t>
   </si>
   <si>
     <t>PR1004</t>
@@ -185,16 +194,19 @@
     <t>PMA PUENTE</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA PUENTE.doc</t>
+  </si>
+  <si>
     <t>El documento corresponde al Plan de Manejo Ambiental de la Construcción de Obras de Protección de Márgenes en el Bajo Cauca, específicamente sobre la construcción de los puentes Potrero Nuevo y las Brisas</t>
   </si>
   <si>
-    <t>El documento contiene la descripción del proyecto, una breve caracterización ambiental del área de estudio,  en donde se refiere a la geología, geomorfología, suelo, condiciones climáticas e hidrología de la zona.  Realiza la zonificación ambiental del área de estudio clasificando las áreas de manejo especial, áreas de exclusión y áreas de intervención con restricciones. Identifica y evalúa los impactos ambientales y luego establece las fichas técnicas para reducir, controlar y mitigar los impactos ambientales identificados y evaluados.</t>
+    <t xml:space="preserve">El documento contiene la descripción del proyecto, una breve caracterización ambiental del área de estudio,  en donde se refiere a la geología, geomorfología, suelo, condiciones climáticas e hidrología de la zona.  Realiza la zonificación ambiental del área de estudio clasificando las áreas de manejo especial, áreas de exclusión y áreas de intervención con restricciones. Identifica y evalúa los impactos ambientales y luego establece las fichas técnicas para reducir, controlar y mitigar los impactos ambientales identificados y evaluados. Así como fichas de monitoreo y seguimiento gestión social. </t>
   </si>
   <si>
     <t>El documento esta en formato editable pero presenta muchos errores tipográficos. En la mayoría de aspectos es muy general  y no refleja claramente que el plan de manejo esté específicamente adaptado al proyecto que se está evaluando. La información detallada solo se encuentra en las fichas correspondientes.</t>
   </si>
   <si>
-    <t>Plan de manejo ambiental, Geología, Geomorfología, Suelo, Hidrología, Zonificación ambiental, Impacto ambiental, Control de inundaciones, Inundación, Normativa, Conservación, Seguimiento ambiental, Hidrosistema fluvial, Infraestructura, Monitoreo.</t>
+    <t>Plan de manejo ambiental, geología, geomorfología, suelo, hidrología, zonificación ambiental, impacto ambiental, control de inundaciones, inundación, normativa, conservación, seguimiento ambiental, hidrosistema fluvial, infraestructura, monitoreo.</t>
   </si>
   <si>
     <t>PR1005</t>
@@ -203,19 +215,32 @@
     <t>PMA TABLESTACADOS</t>
   </si>
   <si>
-    <t>El documento corresponde al  Plan de Manejo Ambiental de la Construcción de Obras de Protección de Márgenes en el Bajo Cauca, específicamente sobre la construcción de Tablestacados</t>
-  </si>
-  <si>
-    <t>El documento esta en formato editable y contiene bastante errores tipográficos, el documento es muy general en la mayoría de aspectos no se evidencia que el plan de manejo sea especifico del proyecto que se esta evaluando. la información específica solo esta en las fichas.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA TABLESTACADOS.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento corresponde al plan de manejo ambiental de la construcción de obras de protección de márgenes en el Bajo Cauca, específicamente sobre la construcción de tablestacados; también incluye, el plan de monitoreo y seguimiento y el plan de contingencia, orientados todos a la minimización, mitigación y control de los impactos ambientales.
+</t>
+  </si>
+  <si>
+    <t>El documento contiene la descripción del proyecto, una breve caracterización ambiental del área de estudio en donde se refiere a la geología, geomorfología, suelo, condiciones climáticas e hidrología de la zona. Realiza la zonificación ambiental del área de estudio clasificándolas en áreas de manejo especial, áreas de exclusión y áreas de intervención con restricciones. Identifica y evalúa los impactos ambientales y luego establece las fichas técnicas para reducir, controlar y mitigar los impactos ambientales identificados y evaluados.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>El documento esta en formato editable y contiene muchos errores tipográficos. El documento es muy general, en la mayoría de aspectos no se evidencia que el plan de manejo sea especifico del proyecto que se esta evaluando. La información específica sólo esta en las fichas.</t>
+  </si>
+  <si>
+    <t>Plan de manejo ambiental, geología, geomorfología, suelo, hidrología, zonificación ambiental, impacto ambiental, control de inundaciones, inundación, normativa, conservación, seguimiento ambiental, hidrosistema fluvial, Infraestructura, monitoreo.</t>
   </si>
   <si>
     <t>PR1006</t>
   </si>
   <si>
-    <t>CONTROL DE INUNDACIONES EN LA REGIÓN DE LA MOJANA</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018_New\02_PRODUCTOS/INFORME FINAL MZO_2006/capitulos.doc</t>
+    <t>capitulos.doc</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/capitulos.doc</t>
   </si>
   <si>
     <t>UNAL</t>
@@ -227,26 +252,26 @@
     <t>MINTRANSPORTE</t>
   </si>
   <si>
-    <t>Informe de control de inundaciones en la región de La Mojana.  El  documento se presenta en dos volúmenes.  El volumen I reúne los estudios básicos necesarios para entender el funcionamiento actual del sistema de La Mojana, con sus componentes ambientales (ecológica, histórica, etnográfica, sociocultural) y técnicas (geología, geomorfología, hidrología, hidráulica), que permitieron concebir la mejor alternativa para la solución del problema de inundaciones.  El volumen II contiene los diseños de las obras proyectadas para el control de las inundaciones en la región de la Mojana.</t>
-  </si>
-  <si>
-    <t>En el Volumen I, que incluye 11 capítulos, se presentan los aspectos desarrollados por cada componente y una sintesis sobre las alternativas de drenaje.  El capítulo 2 presenta las generalidades de la zona de estudio, que comprende el tramo entre el corregimiento de Colorado (Antioquia) y el municipio de Guaranda (Sucre). El capítulo 3 revisa los principales estudios que anteceden este proyecto.  Luego, los capítulos 4 y 5 definen los objetivos y la justificación del estudio. El capitulo 6 contiene el estudio geológico y geomorfológico de la región. El capitulo 7 presenta una breve reseña de los aspectos históricos y del hábitat de la Mojana.  Los aspectos socioculturales se incluyen en el capitulo 8; las características ecológicas se describen en el capítulo 9. El estudio hidrológico e hidráulico se presenta en el capítulo 10 y, finalmente, las consideraciones técnicas y ambientales que concluyen los estudios básicos se presentan en el capitulo 11. El Volumen II, con 10 capítulos, continua con el diseño de las obras hidráulicas y las medidas de mitigación, prevención y protección, contra las inundaciones, de los principales centros poblados.  La obra principal para el control de las inundaciones es el dique marginal proyectado desde la población de Colorado (Antioquia) hasta el cerro Las Brisas – Astilleros, con una longitud de 52.2 km; en su diseño se consideraron la posición con respecto al canal, materiales y geometría más adecuados que las características correspondientes del dique actual.  Se diseñó la vía carreteable en la corona del dique para facilitar el transporte de los habitantes de la región.  Los cerros Astilleros, Las Brisas y la serranía de Mamarraya separan la población de Guaranda (Sucre) del corregimiento de Tenche y Las Brisas en el sur de Bolivar; para comunicar estos poblados por vía terrestre, se continuó el trazado de la vía detrás de los cerros, tratando de efectuar los cortes mínimos en el terreno y a la vez, evadiendo los humedales de la zona (caños, ciénagas y encharcamientos menores) para minimizar las obras de drenaje de la vía.  Para facilitar el drenaje a través de la Mojana se diseñaron estructuras apropiadas que garantizan una evacuación regulada de las aguas en diferentes épocas. Como complemento a la confiabilidad del sistema, se diseñaron obras de protección de orillas (tablestacados y rellenos hidráulicos), de encauzamiento del flujo (obras para el cierre de brazos, espolones, canal piloto y sus obras complementarias), de derivación (puentes y azud con compuertas) y de desviación (canal de excesos del río Nechí). El capítulo 12 contiene una justificación general de las obras diseñadas que incluye el dique marginal, sus obras complementarias y anexas. Se presenta un programa de ejecución de las obras de acuerdo con la hidrología y con la disponibilidad presupuestal.  El capitulo 13 muestras los aspectos específicos del diseño del dique, tanto en su alineamiento horizontal como vertical, los diques de cierre al comienzo y  al final de la vía y en el sector de Caimital.  El capitulo 14 describe los criterios de diseño para las obras de protección de orillas como son los tablestacados en Nuevo Mundo, Potrero Nuevo y San Jacinto. En el capitulo 15 se presentan los criterios de diseño de las obras de derivación del río Cauca hacia la cuenca del río San Jorge; se detallan los diseños de los diques fusibles, los puentes de Potrero Nuevo y Las Brisas y la estructura de derivación (azud con sus respectivas compuertas). El capitulo 16 contiene los diseños de las obras de encauzamiento del flujo en el sector de San Jacinto del Cauca. El canal de excesos del río Nechí es una obra diseñada para aliviar el problema de las inundaciones del casco urbano de Nechí; los diseños se presentan en el capítulo 17. El capítulo 18 contiene los costos generales de cada una de las obras con los análisis de precios unitarios (A.P.U.) respectivos. El capítulo 19 contiene las fichas BPIN y CAF;  Luego en el capítulo 20 se incluyen especificaciones técnicas de construcción de las obras y las referencias bibliográficas se incluyen en el capitulo 21.</t>
-  </si>
-  <si>
-    <t>Anexo 1, información hidrológica; anexo 2, batimetrías del río Cauca y sus caños principales; anexo 3, fichas técnicas de la fauna de la región; anexo 4, registro fotográfico; anexo 5, diseño de vías; anexo 6, suelo geotecnia; anexo 7, memorias diseño de puentes; anexo 8, análisis Lab; anexo 9, certificados equipos; aneo 10, fotografías aereas y anexo 11, carteras topograficas.</t>
-  </si>
-  <si>
-    <t>El Documento se encuentra en formato word y esta distribuido en archivos separados, desde la tabla de contenido hasta su bibliografía, se encuentra en dos sub carpetas volumen I y volumen II</t>
-  </si>
-  <si>
-    <t>Mamarraya, Guaranda, Geología, Geomorfología, Hidrología, Hidráulica, Humedal, Caño, Ciénaga, Espolones, Dique fusible, Inundación, obras de derivación, caudal de diseño, sistema de bombeo, geotextil.</t>
+    <t>La carpeta corresponde al informe de control de inundaciones en la región de La Mojana. El informe se presenta en dos volúmenes.  El volumen I reúne los estudios básicos necesarios para entender el funcionamiento actual del sistema de La Mojana, con sus componentes ambientales (ecológica, histórica, etnográfica, sociocultural) y técnicas (geología, geomorfología, hidrología, hidráulica), que permitieron concebir la mejor alternativa para la solución del problema de inundaciones.  El volumen II contiene los diseños de las obras proyectadas para el control de las inundaciones en la región de la Mojana.</t>
+  </si>
+  <si>
+    <t>En el Volumen I, que incluye 11 capítulos, se presentan los aspectos desarrollados por cada componente y una síntesis sobre las alternativas de drenaje.  El capítulo 2 presenta las generalidades de la zona de estudio, que comprende el tramo entre el corregimiento de Colorado (Antioquia) y el municipio de Guaranda (Sucre). El capítulo 3 revisa los principales estudios que anteceden este proyecto.  Luego, los capítulos 4 y 5 definen los objetivos y la justificación del estudio. El capítulo 6 contiene el estudio geológico y geomorfológico de la región. El capítulo 7 presenta una breve reseña de los aspectos históricos y del hábitat de la Mojana.  Los aspectos socioculturales se incluyen en el capítulo 8; las características ecológicas se describen en el capítulo 9. El estudio hidrológico e hidráulico se presenta en el capítulo 10 y, finalmente, las consideraciones técnicas y ambientales que concluyen los estudios básicos se presentan en el capítulo 11. El Volumen II, con 10 capítulos, continua con el diseño de las obras hidráulicas y las medidas de mitigación, prevención y protección, contra las inundaciones, de los principales centros poblados.  La obra principal para el control de las inundaciones es el dique marginal proyectado desde la población de Colorado (Antioquia) hasta el cerro Las Brisas – Astilleros, con una longitud de 52.2 km; en su diseño se consideraron la posición con respecto al canal, materiales y geometría más adecuados que las características correspondientes del dique actual.  Se diseñó la vía carreteable en la corona del dique para facilitar el transporte de los habitantes de la región.  Los cerros Astilleros, Las Brisas y la serranía de Mamarraya separan la población de Guaranda (Sucre) del corregimiento de Tenche y Las Brisas en el sur de Bolívar; para comunicar estos poblados por vía terrestre, se continuó el trazado de la vía detrás de los cerros, tratando de efectuar los cortes mínimos en el terreno y a la vez, evadiendo los humedales de la zona (caños, ciénagas y encharcamientos menores) para minimizar las obras de drenaje de la vía.  Para facilitar el drenaje a través de la Mojana se diseñaron estructuras apropiadas que garantizan una evacuación regulada de las aguas en diferentes épocas. Como complemento a la confiabilidad del sistema, se diseñaron obras de protección de orillas (tablestacados y rellenos hidráulicos), de encauzamiento del flujo (obras para el cierre de brazos, espolones, canal piloto y sus obras complementarias), de derivación (puentes y azud con compuertas) y de desviación (canal de excesos del río Nechí). El capítulo 12 contiene una justificación general de las obras diseñadas que incluye el dique marginal, sus obras complementarias y anexas. Se presenta un programa de ejecución de las obras de acuerdo con la hidrología y con la disponibilidad presupuestal.  El capítulo 13 muestras los aspectos específicos del diseño del dique, tanto en su alineamiento horizontal como vertical, los diques de cierre al comienzo y al final de la vía y en el sector de Caimital.  El capítulo 14 describe los criterios de diseño para las obras de protección de orillas como son los tablestacados en Nuevo Mundo, Potrero Nuevo y San Jacinto. En el capítulo 15 se presentan los criterios de diseño de las obras de derivación del río Cauca hacia la cuenca del río San Jorge; se detallan los diseños de los diques fusibles, los puentes de Potrero Nuevo y Las Brisas y la estructura de derivación (azud con sus respectivas compuertas). El capítulo 16 contiene los diseños de las obras de encauzamiento del flujo en el sector de San Jacinto del Cauca. El canal de excesos del río Nechí es una obra diseñada para aliviar el problema de las inundaciones del casco urbano de Nechí; los diseños se presentan en el capítulo 17. El capítulo 18 contiene los costos generales de cada una de las obras con los análisis de precios unitarios (A.P.U.) respectivos. El capítulo 19 contiene las fichas BPIN y CAF;  Luego en el capítulo 20 se incluyen especificaciones técnicas de construcción de las obras y las referencias bibliográficas se incluyen en el capítulo 21.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/Anexos</t>
+  </si>
+  <si>
+    <t>El documento se encuentra en formato word y esta distribuido en archivos separados, desde la tabla de contenido hasta su bibliografía, se encuentra en dos sub carpetas volumen I y volumen II.</t>
+  </si>
+  <si>
+    <t>Mamarraya, Guaranda, geología, geomorfología, hidrología, hidráulica, humedal, caño, ciénaga, espolones, dique fusible, inundación, obras de derivación, caudal de diseño, sistema de bombeo, geotextil.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,12 +286,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -296,9 +327,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,11 +613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -602,7 +634,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,51 +690,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>2004</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>31</v>
@@ -714,9 +746,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -725,273 +757,273 @@
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1">
         <v>2004</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>2004</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>2004</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1">
         <v>2004</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>2002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1154,27 +1186,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0018/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0018/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0018/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25DA91D6-B206-4198-935A-542BDB6E4418}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65658805-4C85-4ED2-9752-B86179CCD81B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <t>Instituto Nacional de Vías</t>
   </si>
   <si>
-    <t>El documento contiene el Plan de Manejo Ambiental de la Construcción de Obras de Protección de Márgenes en el Bajo Cauca, específicamente sobre la construcción de espolones y canal el desviación de excedencias</t>
-  </si>
-  <si>
-    <t>El documento contiene la descripción del proyecto, una breve caracterización ambiental del área de estudio, en donde se refiere a la geología, geomorfología, suelo, condiciones climáticas e hidrología de la zona. Además, zonifica el área de estudio en áreas de manejo especial, áreas de exclusión y áreas de intervención con restricciones. Identifica y evalúa los impactos ambientales y luego establece las fichas técnicas correspondientes al Plan de Manejo Ambiental</t>
+    <t>El documento contiene el Plan de Manejo Ambiental de la Construcción de Obras de Protección de Márgenes en el Bajo Cauca, específicamente sobre la construcción de espolones y canal el desviación de excedencias.</t>
+  </si>
+  <si>
+    <t>El documento contiene la descripción del proyecto, una breve caracterización ambiental del área de estudio, en donde se refiere a la geología, geomorfología, suelo, condiciones climáticas e hidrología de la zona. Además, zonifica el área de estudio en áreas de manejo especial, áreas de exclusión y áreas de intervención con restricciones. Identifica y evalúa los impactos ambientales y luego establece las fichas técnicas correspondientes al Plan de Manejo Ambiental.</t>
   </si>
   <si>
     <t>NO</t>
@@ -173,7 +173,8 @@
     <t>PMA PotreroNuevoWILLIAM_MAYO12</t>
   </si>
   <si>
-    <t xml:space="preserve">s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA PotreroNuevoWILLIAM_MAYO12.doc                     </t>
+    <t xml:space="preserve">s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0018/02_PRODUCTOS/INFORME FINAL MZO_2006/PMA mojana/PMA PotreroNuevoWILLIAM_MAYO12.doc
+</t>
   </si>
   <si>
     <t>El documento comprende los comentarios al Plan de Manejo Ambiental de INVIAS construcción de obras de protección de márgenes en el bajo Cauca Rompedero Potrero Nuevo</t>
@@ -327,10 +328,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -622,7 +624,7 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -802,7 +804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -812,7 +814,7 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="1">
@@ -1033,6 +1035,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1176,19 +1187,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0018/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0018/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0018/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65658805-4C85-4ED2-9752-B86179CCD81B}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B91EEA-B1F1-466A-A3B3-355802F0D8B1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +332,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,11 +617,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -636,7 +638,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -748,7 +750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -804,7 +806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -860,7 +862,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -916,7 +918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1035,15 +1037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1187,10 +1180,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/P0018/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0018/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0018/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B91EEA-B1F1-466A-A3B3-355802F0D8B1}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72862340-7D70-40B1-A582-EE4ABAC02F8F}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,9 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,11 +615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -638,7 +636,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -750,7 +748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -806,7 +804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -862,7 +860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -918,7 +916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -974,7 +972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1037,6 +1035,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1180,37 +1187,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0018/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0018/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0018/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72862340-7D70-40B1-A582-EE4ABAC02F8F}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{0CC68DED-8335-4E45-B98E-4D6FF739B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2294DF81-DD45-489B-9A56-3733F3607D95}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1035,15 +1035,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1187,10 +1178,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>